--- a/Roles.xlsx
+++ b/Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coach\Desktop\School\MyRepo\Final Project\UCB_COVID_Prediction_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9F92C3-4D2A-4CDD-894A-6FFF3CA5758D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A73C9C1-6CD3-4C36-83B3-F0DA0750B956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="240" windowWidth="7582" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Presentation</t>
   </si>
   <si>
-    <t>Tableau</t>
-  </si>
-  <si>
     <t>Technology selection, machine learning and support</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Github (Floater)</t>
+  </si>
+  <si>
+    <t>Tableau and README</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -458,7 +458,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -466,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Roles.xlsx
+++ b/Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coach\Desktop\School\MyRepo\Final Project\UCB_COVID_Prediction_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A73C9C1-6CD3-4C36-83B3-F0DA0750B956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48C0F8F-F979-483A-AECD-7C75AE9A664D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="240" windowWidth="7582" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <t>Github (Floater)</t>
   </si>
   <si>
-    <t>Tableau and README</t>
+    <t>Tableau and Master README</t>
   </si>
 </sst>
 </file>
@@ -395,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Roles.xlsx
+++ b/Roles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coach\Desktop\School\MyRepo\Final Project\UCB_COVID_Prediction_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48C0F8F-F979-483A-AECD-7C75AE9A664D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F093B5F3-64AA-435E-A850-254403926967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="240" windowWidth="7582" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>Member</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Bijan Samimi</t>
   </si>
@@ -48,12 +42,6 @@
     <t>Carmen P Washington</t>
   </si>
   <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Machine Learning Model</t>
-  </si>
-  <si>
     <t>AWS S3 and RDB</t>
   </si>
   <si>
@@ -76,14 +64,49 @@
   </si>
   <si>
     <t>Tableau and Master README</t>
+  </si>
+  <si>
+    <t>Dash Board</t>
+  </si>
+  <si>
+    <t>GitHub/Presentation</t>
+  </si>
+  <si>
+    <t>Machine Learning Model, Technology selection, machine learning and support</t>
+  </si>
+  <si>
+    <t>Role for First Deliverable</t>
+  </si>
+  <si>
+    <t>Role for Second Deliverable</t>
+  </si>
+  <si>
+    <t>Group Member</t>
+  </si>
+  <si>
+    <t>Role Details</t>
+  </si>
+  <si>
+    <t>Communication Protocols</t>
+  </si>
+  <si>
+    <t>We meet 3 times a week, Tuesday, Thursday and Saturday at 5 or 530 pm via Zoom for progress checks and to work on items as needed.  We also communicate via Slack often, ensuring if one person sends a meassage one of us answers to make sure our team is providing feedback and everyone is encluded.  We also met on an Adhoc basis to work on areas that may need assistance.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -107,12 +130,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,86 +477,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" customWidth="1"/>
-    <col min="3" max="3" width="42.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="9" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="103.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Roles.xlsx
+++ b/Roles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coach\Desktop\School\MyRepo\Final Project\UCB_COVID_Prediction_Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coach\Desktop\School\MyRepo\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48C0F8F-F979-483A-AECD-7C75AE9A664D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E03C64-877E-45DB-81EB-25B6669A9089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="240" windowWidth="7582" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="12375" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>Member</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Bijan Samimi</t>
   </si>
@@ -48,15 +42,6 @@
     <t>Carmen P Washington</t>
   </si>
   <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Machine Learning Model</t>
-  </si>
-  <si>
-    <t>AWS S3 and RDB</t>
-  </si>
-  <si>
     <t>Presentation</t>
   </si>
   <si>
@@ -76,14 +61,58 @@
   </si>
   <si>
     <t>Tableau and Master README</t>
+  </si>
+  <si>
+    <t>Dash Board</t>
+  </si>
+  <si>
+    <t>GitHub/Presentation</t>
+  </si>
+  <si>
+    <t>Machine Learning Model, Technology selection, machine learning and support</t>
+  </si>
+  <si>
+    <t>Role for First Deliverable</t>
+  </si>
+  <si>
+    <t>Role for Second Deliverable</t>
+  </si>
+  <si>
+    <t>Group Member</t>
+  </si>
+  <si>
+    <t>Role Details</t>
+  </si>
+  <si>
+    <t>Communication Protocols</t>
+  </si>
+  <si>
+    <t>We meet 3 times a week, Tuesday, Thursday and Saturday at 5 or 530 pm via Zoom for progress checks and to work on items as needed.  We also communicate via Slack often, ensuring if one person sends a meassage one of us answers to make sure our team is providing feedback and everyone is encluded.  We also met on an Adhoc basis to work on areas that may need assistance.</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Role for Third Deliverable</t>
+  </si>
+  <si>
+    <t>AWS S3 &amp; RDB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -107,12 +136,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,86 +483,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" customWidth="1"/>
-    <col min="3" max="3" width="42.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="9" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="103.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>